--- a/data/trans_orig/P5B_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P5B_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5555C46-6607-4693-A88B-B6EB49C9FBCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3918677A-2AE5-49C2-81DC-511F6ABAB811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ADE803E7-C97A-463A-961D-E9F7698AEFD4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{02B5C1E1-DAE7-4C08-8A9D-5591A10369BB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="310">
   <si>
     <t>Población que percibe la calidad medioambiental como mala o muy mala en la zona de residencia en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -68,786 +68,708 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>0,88%</t>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que percibe la calidad medioambiental como mala o muy mala en la zona de residencia en 2012 (Tasa respuesta: 99,54%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>3,8%</t>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>Población que percibe la calidad medioambiental como mala o muy mala en la zona de residencia en 2016 (Tasa respuesta: 99,68%)</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
   </si>
   <si>
     <t>1,46%</t>
   </si>
   <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
   </si>
   <si>
     <t>98,54%</t>
   </si>
   <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que percibe la calidad medioambiental como mala o muy mala en la zona de residencia en 2012 (Tasa respuesta: 99,54%)</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>Población que percibe la calidad medioambiental como mala o muy mala en la zona de residencia en 2016 (Tasa respuesta: 99,68%)</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
     <t>1,36%</t>
   </si>
   <si>
@@ -887,190 +809,166 @@
     <t>Población que percibe la calidad medioambiental como mala o muy mala en la zona de residencia en 2023 (Tasa respuesta: 99,74%)</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
   </si>
   <si>
     <t>0,68%</t>
   </si>
   <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
   </si>
   <si>
     <t>99,32%</t>
   </si>
   <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
   </si>
   <si>
     <t>0,14%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
   </si>
   <si>
     <t>99,86%</t>
   </si>
   <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
   </si>
   <si>
     <t>99,07%</t>
   </si>
   <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
   </si>
 </sst>
 </file>
@@ -1482,8 +1380,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABC95F5-F36D-4C2E-9467-DB6619073315}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66EF7AC5-3E1E-489D-92C5-DE6639275D2B}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1600,10 +1498,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D4" s="7">
-        <v>1012</v>
+        <v>14152</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1615,85 +1513,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="I4" s="7">
-        <v>1646</v>
+        <v>20191</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="N4" s="7">
-        <v>2658</v>
+        <v>34343</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>104</v>
+        <v>668</v>
       </c>
       <c r="D5" s="7">
-        <v>114346</v>
+        <v>678915</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>126</v>
+        <v>675</v>
       </c>
       <c r="I5" s="7">
-        <v>111109</v>
+        <v>668160</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>230</v>
+        <v>1343</v>
       </c>
       <c r="N5" s="7">
-        <v>225455</v>
+        <v>1347075</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1702,153 +1600,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>682</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>693067</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1378</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1381418</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D7" s="7">
-        <v>13140</v>
+        <v>22532</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="I7" s="7">
-        <v>18546</v>
+        <v>42727</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="N7" s="7">
-        <v>31685</v>
+        <v>65259</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>564</v>
+        <v>875</v>
       </c>
       <c r="D8" s="7">
-        <v>564569</v>
+        <v>939268</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>549</v>
+        <v>866</v>
       </c>
       <c r="I8" s="7">
-        <v>557050</v>
+        <v>924042</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1113</v>
+        <v>1741</v>
       </c>
       <c r="N8" s="7">
-        <v>1121620</v>
+        <v>1863310</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1857,153 +1755,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>577</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>577709</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>907</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>966769</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1145</v>
+        <v>1803</v>
       </c>
       <c r="N9" s="7">
-        <v>1153305</v>
+        <v>1928569</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D10" s="7">
-        <v>22532</v>
+        <v>16318</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
+        <v>27</v>
+      </c>
+      <c r="I10" s="7">
+        <v>26763</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="7">
         <v>41</v>
       </c>
-      <c r="I10" s="7">
-        <v>42727</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M10" s="7">
-        <v>62</v>
-      </c>
       <c r="N10" s="7">
-        <v>65259</v>
+        <v>43081</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>875</v>
+        <v>627</v>
       </c>
       <c r="D11" s="7">
-        <v>939268</v>
+        <v>662191</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>866</v>
+        <v>669</v>
       </c>
       <c r="I11" s="7">
-        <v>924042</v>
+        <v>657078</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1741</v>
+        <v>1296</v>
       </c>
       <c r="N11" s="7">
-        <v>1863310</v>
+        <v>1319269</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2012,153 +1910,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>907</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>966769</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1803</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1928569</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D13" s="7">
-        <v>16318</v>
+        <v>43355</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="I13" s="7">
-        <v>26763</v>
+        <v>68601</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="N13" s="7">
-        <v>43081</v>
+        <v>111956</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>627</v>
+        <v>946</v>
       </c>
       <c r="D14" s="7">
-        <v>662191</v>
+        <v>895693</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>669</v>
+        <v>931</v>
       </c>
       <c r="I14" s="7">
-        <v>657078</v>
+        <v>970011</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1296</v>
+        <v>1877</v>
       </c>
       <c r="N14" s="7">
-        <v>1319269</v>
+        <v>1865704</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2167,153 +2065,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>991</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>939048</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1988</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1977660</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="D16" s="7">
-        <v>43355</v>
+        <v>96357</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>66</v>
+        <v>155</v>
       </c>
       <c r="I16" s="7">
-        <v>68601</v>
+        <v>158282</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>111</v>
+        <v>249</v>
       </c>
       <c r="N16" s="7">
-        <v>111956</v>
+        <v>254639</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>946</v>
+        <v>3116</v>
       </c>
       <c r="D17" s="7">
-        <v>895693</v>
+        <v>3176067</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
-        <v>931</v>
+        <v>3141</v>
       </c>
       <c r="I17" s="7">
-        <v>970011</v>
+        <v>3219291</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
-        <v>1877</v>
+        <v>6257</v>
       </c>
       <c r="N17" s="7">
-        <v>1865704</v>
+        <v>6395358</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2322,217 +2220,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>991</v>
+        <v>3210</v>
       </c>
       <c r="D18" s="7">
-        <v>939048</v>
+        <v>3272424</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3296</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3377573</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1988</v>
+        <v>6506</v>
       </c>
       <c r="N18" s="7">
-        <v>1977660</v>
+        <v>6649997</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>94</v>
-      </c>
-      <c r="D19" s="7">
-        <v>96357</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="A19" t="s">
         <v>104</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H19" s="7">
-        <v>155</v>
-      </c>
-      <c r="I19" s="7">
-        <v>158282</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M19" s="7">
-        <v>249</v>
-      </c>
-      <c r="N19" s="7">
-        <v>254639</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3116</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3176067</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3141</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3219291</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6257</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6395358</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3210</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3272424</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3296</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3377573</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6506</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6649997</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2545,8 +2287,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BFA5DE2-16A3-46EA-8829-E7040C7D4EE9}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F04990-7BBA-4236-94A4-01CC38FF4961}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2562,7 +2304,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2663,100 +2405,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>727</v>
+        <v>1730</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>2870</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>727</v>
+        <v>4601</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>672</v>
+      </c>
+      <c r="D5" s="7">
+        <v>701739</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" s="7">
+        <v>645</v>
+      </c>
+      <c r="I5" s="7">
+        <v>692006</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1317</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1393744</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="7">
-        <v>115038</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="7">
-        <v>98</v>
-      </c>
-      <c r="I5" s="7">
-        <v>110774</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="7">
-        <v>219</v>
-      </c>
-      <c r="N5" s="7">
-        <v>225812</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>130</v>
-      </c>
       <c r="P5" s="7" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2765,153 +2507,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>98</v>
+        <v>648</v>
       </c>
       <c r="I6" s="7">
-        <v>110774</v>
+        <v>694876</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>220</v>
+        <v>1322</v>
       </c>
       <c r="N6" s="7">
-        <v>226539</v>
+        <v>1398345</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D7" s="7">
-        <v>1003</v>
+        <v>16451</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="I7" s="7">
-        <v>2870</v>
+        <v>26301</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="M7" s="7">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="N7" s="7">
-        <v>3874</v>
+        <v>42753</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>551</v>
+        <v>917</v>
       </c>
       <c r="D8" s="7">
-        <v>586701</v>
+        <v>997544</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="H8" s="7">
-        <v>547</v>
+        <v>913</v>
       </c>
       <c r="I8" s="7">
-        <v>581232</v>
+        <v>1001615</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="M8" s="7">
-        <v>1098</v>
+        <v>1830</v>
       </c>
       <c r="N8" s="7">
-        <v>1167932</v>
+        <v>1999157</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2920,153 +2662,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>932</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1013995</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>550</v>
+        <v>936</v>
       </c>
       <c r="I9" s="7">
-        <v>584102</v>
+        <v>1027916</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1102</v>
+        <v>1868</v>
       </c>
       <c r="N9" s="7">
-        <v>1171806</v>
+        <v>2041910</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="7">
-        <v>16451</v>
+        <v>15701</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>26301</v>
+        <v>8456</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="M10" s="7">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="N10" s="7">
-        <v>42753</v>
+        <v>24156</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>917</v>
+        <v>675</v>
       </c>
       <c r="D11" s="7">
-        <v>997544</v>
+        <v>741922</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="H11" s="7">
-        <v>913</v>
+        <v>695</v>
       </c>
       <c r="I11" s="7">
-        <v>1001615</v>
+        <v>766518</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="M11" s="7">
-        <v>1830</v>
+        <v>1370</v>
       </c>
       <c r="N11" s="7">
-        <v>1999157</v>
+        <v>1508442</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>162</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3075,153 +2817,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>932</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1013995</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>936</v>
+        <v>703</v>
       </c>
       <c r="I12" s="7">
-        <v>1027916</v>
+        <v>774974</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1868</v>
+        <v>1392</v>
       </c>
       <c r="N12" s="7">
-        <v>2041910</v>
+        <v>1532598</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D13" s="7">
-        <v>15701</v>
+        <v>22673</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>164</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="H13" s="7">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="I13" s="7">
-        <v>8456</v>
+        <v>20089</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="M13" s="7">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="N13" s="7">
-        <v>24156</v>
+        <v>42763</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>675</v>
+        <v>879</v>
       </c>
       <c r="D14" s="7">
-        <v>741922</v>
+        <v>915042</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>172</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H14" s="7">
-        <v>695</v>
+        <v>976</v>
       </c>
       <c r="I14" s="7">
-        <v>766518</v>
+        <v>1023733</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="M14" s="7">
-        <v>1370</v>
+        <v>1855</v>
       </c>
       <c r="N14" s="7">
-        <v>1508442</v>
+        <v>1938773</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,153 +2972,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>900</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>937715</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>703</v>
+        <v>995</v>
       </c>
       <c r="I15" s="7">
-        <v>774974</v>
+        <v>1043822</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1392</v>
+        <v>1895</v>
       </c>
       <c r="N15" s="7">
-        <v>1532598</v>
+        <v>1981536</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="D16" s="7">
-        <v>22673</v>
+        <v>56556</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="H16" s="7">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="I16" s="7">
-        <v>20089</v>
+        <v>57716</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="M16" s="7">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="N16" s="7">
-        <v>42763</v>
+        <v>114272</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>879</v>
+        <v>3143</v>
       </c>
       <c r="D17" s="7">
-        <v>915042</v>
+        <v>3356246</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>179</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H17" s="7">
+        <v>3229</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3483871</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="M17" s="7">
+        <v>6372</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6840117</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="H17" s="7">
-        <v>976</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1023733</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1855</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1938773</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3385,217 +3127,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>900</v>
+        <v>3195</v>
       </c>
       <c r="D18" s="7">
-        <v>937715</v>
+        <v>3412802</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>995</v>
+        <v>3282</v>
       </c>
       <c r="I18" s="7">
-        <v>1043822</v>
+        <v>3541587</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1895</v>
+        <v>6477</v>
       </c>
       <c r="N18" s="7">
-        <v>1981536</v>
+        <v>6954389</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>52</v>
-      </c>
-      <c r="D19" s="7">
-        <v>56556</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="H19" s="7">
-        <v>53</v>
-      </c>
-      <c r="I19" s="7">
-        <v>57716</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="M19" s="7">
-        <v>105</v>
-      </c>
-      <c r="N19" s="7">
-        <v>114272</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3143</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3356246</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3229</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3483872</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6372</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6840117</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3195</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3412802</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3282</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3541588</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6477</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6954389</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3608,8 +3194,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6311BE8-0017-4F9E-AB15-324D2FDC2BAB}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC2484C-9108-40B3-B70C-0F4866326DA2}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3625,7 +3211,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3726,100 +3312,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>845</v>
+        <v>8891</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>212</v>
+        <v>126</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>3168</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="N4" s="7">
-        <v>845</v>
+        <v>12059</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>112</v>
+        <v>643</v>
       </c>
       <c r="D5" s="7">
-        <v>115701</v>
+        <v>664429</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>217</v>
+        <v>134</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>197</v>
       </c>
       <c r="H5" s="7">
-        <v>115</v>
+        <v>661</v>
       </c>
       <c r="I5" s="7">
-        <v>113360</v>
+        <v>667796</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>198</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>227</v>
+        <v>1304</v>
       </c>
       <c r="N5" s="7">
-        <v>229061</v>
+        <v>1332225</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>22</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3828,153 +3414,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>651</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>673320</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>664</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>670964</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1315</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1344284</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>8046</v>
+        <v>12096</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I7" s="7">
-        <v>3168</v>
+        <v>17719</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>135</v>
+        <v>206</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c r="M7" s="7">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="N7" s="7">
-        <v>11214</v>
+        <v>29815</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>531</v>
+        <v>939</v>
       </c>
       <c r="D8" s="7">
-        <v>548728</v>
+        <v>1009252</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="H8" s="7">
-        <v>546</v>
+        <v>958</v>
       </c>
       <c r="I8" s="7">
-        <v>554436</v>
+        <v>1022216</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>144</v>
+        <v>215</v>
       </c>
       <c r="M8" s="7">
-        <v>1077</v>
+        <v>1897</v>
       </c>
       <c r="N8" s="7">
-        <v>1103164</v>
+        <v>2031468</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3983,54 +3569,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>538</v>
+        <v>950</v>
       </c>
       <c r="D9" s="7">
-        <v>556774</v>
+        <v>1021348</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>549</v>
+        <v>974</v>
       </c>
       <c r="I9" s="7">
-        <v>557604</v>
+        <v>1039935</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1087</v>
+        <v>1924</v>
       </c>
       <c r="N9" s="7">
-        <v>1114378</v>
+        <v>2061283</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4039,97 +3625,97 @@
         <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>12096</v>
+        <v>12228</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="H10" s="7">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I10" s="7">
-        <v>17719</v>
+        <v>26206</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="M10" s="7">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="N10" s="7">
-        <v>29815</v>
+        <v>38433</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>221</v>
+        <v>17</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>240</v>
+        <v>18</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>939</v>
+        <v>684</v>
       </c>
       <c r="D11" s="7">
-        <v>1009252</v>
+        <v>746278</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="H11" s="7">
-        <v>958</v>
+        <v>710</v>
       </c>
       <c r="I11" s="7">
-        <v>1022216</v>
+        <v>756592</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="M11" s="7">
-        <v>1897</v>
+        <v>1394</v>
       </c>
       <c r="N11" s="7">
-        <v>2031468</v>
+        <v>1502871</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>228</v>
+        <v>27</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>248</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4138,153 +3724,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>950</v>
+        <v>695</v>
       </c>
       <c r="D12" s="7">
-        <v>1021348</v>
+        <v>758506</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>974</v>
+        <v>734</v>
       </c>
       <c r="I12" s="7">
-        <v>1039935</v>
+        <v>782798</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1924</v>
+        <v>1429</v>
       </c>
       <c r="N12" s="7">
-        <v>2061283</v>
+        <v>1541304</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>12228</v>
+        <v>12809</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>126</v>
+        <v>233</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>249</v>
+        <v>89</v>
       </c>
       <c r="H13" s="7">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I13" s="7">
-        <v>26206</v>
+        <v>28353</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="M13" s="7">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N13" s="7">
-        <v>38433</v>
+        <v>41163</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>253</v>
+        <v>129</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>255</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>684</v>
+        <v>915</v>
       </c>
       <c r="D14" s="7">
-        <v>746278</v>
+        <v>919652</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>131</v>
+        <v>238</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>256</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>146</v>
+        <v>239</v>
       </c>
       <c r="H14" s="7">
-        <v>710</v>
+        <v>927</v>
       </c>
       <c r="I14" s="7">
-        <v>756592</v>
+        <v>1008462</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="M14" s="7">
-        <v>1394</v>
+        <v>1842</v>
       </c>
       <c r="N14" s="7">
-        <v>1502871</v>
+        <v>1928113</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>260</v>
+        <v>137</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>261</v>
+        <v>166</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4293,153 +3879,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>695</v>
+        <v>927</v>
       </c>
       <c r="D15" s="7">
-        <v>758506</v>
+        <v>932461</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>734</v>
+        <v>953</v>
       </c>
       <c r="I15" s="7">
-        <v>782798</v>
+        <v>1036815</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1429</v>
+        <v>1880</v>
       </c>
       <c r="N15" s="7">
-        <v>1541304</v>
+        <v>1969276</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D16" s="7">
-        <v>12809</v>
+        <v>46024</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>136</v>
+        <v>243</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>263</v>
+        <v>206</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>104</v>
+        <v>244</v>
       </c>
       <c r="H16" s="7">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="I16" s="7">
-        <v>28353</v>
+        <v>75446</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="M16" s="7">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="N16" s="7">
-        <v>41163</v>
+        <v>121470</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>153</v>
+        <v>248</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>915</v>
+        <v>3181</v>
       </c>
       <c r="D17" s="7">
-        <v>919652</v>
+        <v>3339611</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>143</v>
+        <v>249</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>250</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>266</v>
+        <v>215</v>
       </c>
       <c r="H17" s="7">
-        <v>927</v>
+        <v>3256</v>
       </c>
       <c r="I17" s="7">
-        <v>1008462</v>
+        <v>3455067</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="M17" s="7">
-        <v>1842</v>
+        <v>6437</v>
       </c>
       <c r="N17" s="7">
-        <v>1928113</v>
+        <v>6794678</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>161</v>
+        <v>254</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>23</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4448,217 +4034,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>927</v>
+        <v>3223</v>
       </c>
       <c r="D18" s="7">
-        <v>932461</v>
+        <v>3385635</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>953</v>
+        <v>3325</v>
       </c>
       <c r="I18" s="7">
-        <v>1036815</v>
+        <v>3530513</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1880</v>
+        <v>6548</v>
       </c>
       <c r="N18" s="7">
-        <v>1969276</v>
+        <v>6916148</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>42</v>
-      </c>
-      <c r="D19" s="7">
-        <v>46024</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="H19" s="7">
-        <v>69</v>
-      </c>
-      <c r="I19" s="7">
-        <v>75446</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="M19" s="7">
-        <v>111</v>
-      </c>
-      <c r="N19" s="7">
-        <v>121470</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3181</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3339610</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3256</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3455067</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6437</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6794678</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3223</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3385634</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3325</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3530513</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6548</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6916148</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4671,8 +4101,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA6EEEB-8D6A-480C-8DAB-FCFF1D9275FB}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C8D3669-E3AF-48E7-9B57-A4CEB5CD2CB6}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4688,7 +4118,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4789,100 +4219,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1402</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>256</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>126</v>
+        <v>257</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>2033</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>258</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>123</v>
+        <v>259</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>3435</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>123</v>
+        <v>261</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>283</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>118</v>
+        <v>727</v>
       </c>
       <c r="D5" s="7">
-        <v>101982</v>
+        <v>633020</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>22</v>
+        <v>262</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>131</v>
+        <v>263</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
-        <v>243</v>
+        <v>1235</v>
       </c>
       <c r="I5" s="7">
-        <v>130733</v>
+        <v>722906</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>264</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>28</v>
+        <v>266</v>
       </c>
       <c r="M5" s="7">
-        <v>361</v>
+        <v>1962</v>
       </c>
       <c r="N5" s="7">
-        <v>232715</v>
+        <v>1355926</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4891,153 +4321,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>729</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>634422</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1240</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>724939</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1969</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1359361</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>1489</v>
+        <v>4691</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>259</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="H7" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I7" s="7">
-        <v>2122</v>
+        <v>6519</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>17</v>
+        <v>270</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>288</v>
+        <v>112</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>289</v>
+        <v>171</v>
       </c>
       <c r="M7" s="7">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N7" s="7">
-        <v>3611</v>
+        <v>11210</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>290</v>
+        <v>144</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>609</v>
+        <v>957</v>
       </c>
       <c r="D8" s="7">
-        <v>547284</v>
+        <v>1185291</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>22</v>
+        <v>266</v>
       </c>
       <c r="H8" s="7">
-        <v>992</v>
+        <v>1506</v>
       </c>
       <c r="I8" s="7">
-        <v>617421</v>
+        <v>950937</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>27</v>
+        <v>275</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>295</v>
+        <v>181</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>296</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
-        <v>1601</v>
+        <v>2463</v>
       </c>
       <c r="N8" s="7">
-        <v>1164705</v>
+        <v>2136228</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>297</v>
+        <v>153</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5046,153 +4476,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>611</v>
+        <v>962</v>
       </c>
       <c r="D9" s="7">
-        <v>548773</v>
+        <v>1189982</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>997</v>
+        <v>1515</v>
       </c>
       <c r="I9" s="7">
-        <v>619543</v>
+        <v>957456</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1608</v>
+        <v>2477</v>
       </c>
       <c r="N9" s="7">
-        <v>1168316</v>
+        <v>2147438</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>4</v>
+      </c>
+      <c r="D10" s="7">
+        <v>4000</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H10" s="7">
         <v>5</v>
       </c>
-      <c r="D10" s="7">
-        <v>4839</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="7">
+      <c r="I10" s="7">
+        <v>2808</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="M10" s="7">
         <v>9</v>
       </c>
-      <c r="I10" s="7">
-        <v>7099</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="M10" s="7">
-        <v>14</v>
-      </c>
       <c r="N10" s="7">
-        <v>11938</v>
+        <v>6808</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>224</v>
+        <v>281</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>957</v>
+        <v>670</v>
       </c>
       <c r="D11" s="7">
-        <v>1031522</v>
+        <v>699912</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>306</v>
+        <v>197</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>25</v>
+        <v>201</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="H11" s="7">
-        <v>1506</v>
+        <v>1042</v>
       </c>
       <c r="I11" s="7">
-        <v>1051687</v>
+        <v>930558</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>309</v>
+        <v>263</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>130</v>
+        <v>286</v>
       </c>
       <c r="M11" s="7">
-        <v>2463</v>
+        <v>1712</v>
       </c>
       <c r="N11" s="7">
-        <v>2083209</v>
+        <v>1630469</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>231</v>
+        <v>287</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5201,153 +4631,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>962</v>
+        <v>674</v>
       </c>
       <c r="D12" s="7">
-        <v>1036361</v>
+        <v>703912</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1515</v>
+        <v>1047</v>
       </c>
       <c r="I12" s="7">
-        <v>1058786</v>
+        <v>933366</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2477</v>
+        <v>1721</v>
       </c>
       <c r="N12" s="7">
-        <v>2095147</v>
+        <v>1637277</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D13" s="7">
-        <v>4095</v>
+        <v>27071</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>301</v>
+        <v>158</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="H13" s="7">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="I13" s="7">
-        <v>3061</v>
+        <v>34053</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="M13" s="7">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="N13" s="7">
-        <v>7155</v>
+        <v>61125</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>317</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>670</v>
+        <v>977</v>
       </c>
       <c r="D14" s="7">
-        <v>723891</v>
+        <v>898963</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>307</v>
+        <v>165</v>
       </c>
       <c r="H14" s="7">
-        <v>1042</v>
+        <v>1500</v>
       </c>
       <c r="I14" s="7">
-        <v>871310</v>
+        <v>1054260</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M14" s="7">
-        <v>1712</v>
+        <v>2477</v>
       </c>
       <c r="N14" s="7">
-        <v>1595201</v>
+        <v>1953222</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>322</v>
+        <v>63</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5356,153 +4786,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>674</v>
+        <v>1004</v>
       </c>
       <c r="D15" s="7">
-        <v>727986</v>
+        <v>926034</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1047</v>
+        <v>1549</v>
       </c>
       <c r="I15" s="7">
-        <v>874371</v>
+        <v>1088313</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1721</v>
+        <v>2553</v>
       </c>
       <c r="N15" s="7">
-        <v>1602356</v>
+        <v>2014347</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D16" s="7">
-        <v>27976</v>
+        <v>37165</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>326</v>
+        <v>162</v>
       </c>
       <c r="H16" s="7">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="I16" s="7">
-        <v>37124</v>
+        <v>45413</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>327</v>
+        <v>171</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>328</v>
+        <v>193</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>329</v>
+        <v>146</v>
       </c>
       <c r="M16" s="7">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="N16" s="7">
-        <v>65100</v>
+        <v>82578</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>68</v>
+        <v>272</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>331</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>977</v>
+        <v>3331</v>
       </c>
       <c r="D17" s="7">
-        <v>936601</v>
+        <v>3417184</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>333</v>
+        <v>169</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="H17" s="7">
-        <v>1500</v>
+        <v>5283</v>
       </c>
       <c r="I17" s="7">
-        <v>1106072</v>
+        <v>3658661</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>335</v>
+        <v>181</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>336</v>
+        <v>154</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>337</v>
+        <v>200</v>
       </c>
       <c r="M17" s="7">
-        <v>2477</v>
+        <v>8614</v>
       </c>
       <c r="N17" s="7">
-        <v>2042673</v>
+        <v>7075845</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>339</v>
+        <v>199</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>77</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5511,217 +4941,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1004</v>
+        <v>3369</v>
       </c>
       <c r="D18" s="7">
-        <v>964577</v>
+        <v>3454349</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1549</v>
+        <v>5351</v>
       </c>
       <c r="I18" s="7">
-        <v>1143196</v>
+        <v>3704074</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2553</v>
+        <v>8720</v>
       </c>
       <c r="N18" s="7">
-        <v>2107773</v>
+        <v>7158423</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>38</v>
-      </c>
-      <c r="D19" s="7">
-        <v>38399</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H19" s="7">
-        <v>68</v>
-      </c>
-      <c r="I19" s="7">
-        <v>49406</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="M19" s="7">
-        <v>106</v>
-      </c>
-      <c r="N19" s="7">
-        <v>87805</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3331</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3341280</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H20" s="7">
-        <v>5283</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3777222</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="M20" s="7">
-        <v>8614</v>
-      </c>
-      <c r="N20" s="7">
-        <v>7118502</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3369</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3379679</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5351</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3826628</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8720</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7206307</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
